--- a/data/georgia_census/shida-qartli/xashuri/education_graduates.xlsx
+++ b/data/georgia_census/shida-qartli/xashuri/education_graduates.xlsx
@@ -1827,13 +1827,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{361B882B-EB64-4DA5-8305-D34CEDA8EA6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FEBC8F0-C3C6-4C2F-8134-1F4DE8560300}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315CD895-6A39-4669-A078-AECE4E82DB2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74ABEB0D-D607-4865-A773-042137CEE9DA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D123D7A9-9B05-4AA1-B755-D3AE6F1D8587}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B2221E3-5E64-4AAD-A2B2-65A5ADB0FA91}"/>
 </file>